--- a/Kabum/Produtos.xlsx
+++ b/Kabum/Produtos.xlsx
@@ -1,57 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Desktop\Projetos GIT pessoal\Kabum\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76822FCB-3A0C-4B11-B4EF-5092FA84E068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,24 +60,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -359,25 +402,669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="104.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col width="104.21875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>R$ 3.074,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>R$ 1.907,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>R$ 4.874,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>R$ 2.682,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>R$ 4.299,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R$ 7.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R$ 3.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R$ 4.016,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R$ 2.825,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>R$ 6.027,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R$ 7.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R$ 11.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>R$ 3.899,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>R$ 1.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>R$ 3.100,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>R$ 4.768,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>R$ 2.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>R$ 4.258,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>R$ 4.099,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PC Gamer Skul 5000 Quad, Intel Core i5-4570, 8GB DDR3, SSD 240GB, 500W Bronze, Linux, Preto - 159637</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>R$ 1.599,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R$ 5.599,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R$ 7.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R$ 8.599,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R$ 2.899,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R$ 5.199,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R$ 10.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R$ 4.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R$ 5.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R$ 4.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R$ 7.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>R$ 5.027,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>R$ 6.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R$ 3.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R$ 3.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R$ 4.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R$ 7.149,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R$ 4.149,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>R$ 8.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>R$ 3.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PC Gamer NAVE Atmosfera IAT10 Intel Core i5-10400F, 8GB, SSD 256, HD 1TB, Geforce GTX 1660 Super, Linux - DNi5V53F000</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>R$ 3.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R$ 9.876,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R$ 8.672,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R$ 3.024,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R$ 4.199,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R$ 3.899,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R$ 3.199,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>R$ 5.599,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>R$ 4.499,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>R$ 5.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>R$ 8.799,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R$ 6.999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R$ 3.799,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PC Gamer Concórdia AMD Ryzen 5-3400G, RGB, 8GB DDR4, SSD 240GB, RGB, Linux, Preto - 31724</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>R$ 4.999,99</t>
+        </is>
       </c>
     </row>
   </sheetData>
